--- a/biology/Zoologie/Capetus_palustris/Capetus_palustris.xlsx
+++ b/biology/Zoologie/Capetus_palustris/Capetus_palustris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capetus
-Capetus est un genre fossile d'amphibiens temnospondyles basaux ayant vécu durant le Carbonifère supérieur, il y a entre 311 et 307 Ma (millions d'années) en République tchèque[1] et dont une seule espèce est rattachée, Capetus palustris, décrite par Margaret C. Steen (d) en 1938. 
+Capetus est un genre fossile d'amphibiens temnospondyles basaux ayant vécu durant le Carbonifère supérieur, il y a entre 311 et 307 Ma (millions d'années) en République tchèque et dont une seule espèce est rattachée, Capetus palustris, décrite par Margaret C. Steen (d) en 1938. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'un des plus vieux temnospondyles découvert à ce jour. L'animal mesurait environ 1,50 mètre de long [2] et vivait très certainement dans les marécages des forêts du Carbonifère où il chassait probablement des tétrapodes plus petits .
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'un des plus vieux temnospondyles découvert à ce jour. L'animal mesurait environ 1,50 mètre de long  et vivait très certainement dans les marécages des forêts du Carbonifère où il chassait probablement des tétrapodes plus petits .
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, un cladogramme des Temnospondyli montrant les relations des Edopoidea de Christian A. Sidor (en) et al. (2006) :
 </t>
         </is>
       </c>
